--- a/src/test/resources/TestData/EmployeeDetails.xlsx
+++ b/src/test/resources/TestData/EmployeeDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Durga Prasad\eclipse-workspace\Beeforce\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236FB7C4-1CAC-4DDE-9D38-58720611F5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FF017C-C930-4F50-B741-160685EEC033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="500" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasicDetailsJKC" sheetId="13" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="382">
   <si>
     <t>Manpower</t>
   </si>
@@ -1321,16 +1321,37 @@
     <t>342902</t>
   </si>
   <si>
-    <t>NIM000002</t>
-  </si>
-  <si>
     <t>Shift B</t>
   </si>
   <si>
     <t>AC SUPERVISOR</t>
   </si>
   <si>
-    <t>NIM000003</t>
+    <t>304002222</t>
+  </si>
+  <si>
+    <t>150000054</t>
+  </si>
+  <si>
+    <t>150000055</t>
+  </si>
+  <si>
+    <t>150000057</t>
+  </si>
+  <si>
+    <t>150000058</t>
+  </si>
+  <si>
+    <t>150000059</t>
+  </si>
+  <si>
+    <t>150000060</t>
+  </si>
+  <si>
+    <t>150000061</t>
+  </si>
+  <si>
+    <t>NIM000006</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1673,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1787,6 +1808,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
@@ -2409,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313C297D-32C0-4D2A-A48D-573A241E0F52}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2581,10 +2623,10 @@
         <v>353</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>62</v>
@@ -2651,10 +2693,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="E16" sqref="E16:AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2664,7 +2706,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>58</v>
       </c>
@@ -2675,12 +2717,107 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s" s="0">
         <v>63</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="E16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T16" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="U16" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="V16" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI16" t="s" s="0">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -12459,9 +12596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CDFA04-BCD4-4C0F-84D9-7188A5DC4951}">
   <dimension ref="A1:H1018"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17452,7 +17589,7 @@
   <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20476,7 +20613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2031CA-7E56-404B-91B4-C3DDFE83834B}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -20965,8 +21102,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21209,13 +21346,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A436" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.35546875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.02734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
@@ -21224,8 +21361,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
-        <v>374</v>
+      <c r="A2" s="58" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/EmployeeDetails.xlsx
+++ b/src/test/resources/TestData/EmployeeDetails.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="386">
   <si>
     <t>Manpower</t>
   </si>
@@ -1352,6 +1352,18 @@
   </si>
   <si>
     <t>NIM000006</t>
+  </si>
+  <si>
+    <t>150000063</t>
+  </si>
+  <si>
+    <t>NIM000007</t>
+  </si>
+  <si>
+    <t>150000064</t>
+  </si>
+  <si>
+    <t>150000065</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1685,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1808,6 +1820,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
@@ -21361,8 +21385,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
-        <v>381</v>
+      <c r="A2" s="62" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/EmployeeDetails.xlsx
+++ b/src/test/resources/TestData/EmployeeDetails.xlsx
@@ -1,28 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Durga Prasad\eclipse-workspace\Beeforce\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736F1917-CD5A-4341-A8F2-9EE6C6F28F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFC76FA-F265-48D9-AB64-97DA59D1F6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="300" windowWidth="20025" windowHeight="10620" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="STLBSCanidateUpload" sheetId="16" r:id="rId1"/>
-    <sheet name="STLBudget" sheetId="14" r:id="rId2"/>
-    <sheet name="STLSourcing" sheetId="15" r:id="rId3"/>
-    <sheet name="BasicDetailsJKC" sheetId="13" r:id="rId4"/>
-    <sheet name="Fieldvalidation" sheetId="8" r:id="rId5"/>
-    <sheet name="BasicDetailsRetail" sheetId="5" r:id="rId6"/>
-    <sheet name="BasicDetailsPlant" sheetId="4" r:id="rId7"/>
-    <sheet name="BasicDetailsCorporate" sheetId="1" r:id="rId8"/>
-    <sheet name="BTID" sheetId="2" r:id="rId9"/>
-    <sheet name="EmployeeFieldUpdate" sheetId="3" r:id="rId10"/>
+    <sheet name="BasicDetailsAutoLiv" sheetId="19" r:id="rId1"/>
+    <sheet name="BasicDetailsSTL" sheetId="17" r:id="rId2"/>
+    <sheet name="STLChrmsDetails" sheetId="18" r:id="rId3"/>
+    <sheet name="JKCBSCanidateUpload" sheetId="22" r:id="rId4"/>
+    <sheet name="STLBSCanidateUpload" sheetId="16" r:id="rId5"/>
+    <sheet name="JKCBudget" sheetId="20" r:id="rId6"/>
+    <sheet name="JKCSourcing" sheetId="21" r:id="rId7"/>
+    <sheet name="STLBudget" sheetId="14" r:id="rId8"/>
+    <sheet name="STLSourcing" sheetId="15" r:id="rId9"/>
+    <sheet name="BasicDetailsJKC" sheetId="13" r:id="rId10"/>
+    <sheet name="Fieldvalidation" sheetId="8" r:id="rId11"/>
+    <sheet name="BasicDetailsRetail" sheetId="5" r:id="rId12"/>
+    <sheet name="PayRoll" sheetId="23" r:id="rId13"/>
+    <sheet name="BasicDetailsPlant" sheetId="4" r:id="rId14"/>
+    <sheet name="BasicDetailsCorporate" sheetId="1" r:id="rId15"/>
+    <sheet name="BTID" sheetId="2" r:id="rId16"/>
+    <sheet name="EmployeeFieldUpdate" sheetId="3" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="366">
   <si>
     <t>Manpower</t>
   </si>
@@ -143,9 +150,6 @@
     <t>O+Ve</t>
   </si>
   <si>
-    <t>Corporate</t>
-  </si>
-  <si>
     <t>Watch</t>
   </si>
   <si>
@@ -233,12 +237,6 @@
     <t>Plant</t>
   </si>
   <si>
-    <t>BT3001000002</t>
-  </si>
-  <si>
-    <t>BANK NAME</t>
-  </si>
-  <si>
     <t>1547</t>
   </si>
   <si>
@@ -554,9 +552,6 @@
     <t>Access Solutions</t>
   </si>
   <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
     <t>Contract</t>
   </si>
   <si>
@@ -593,31 +588,565 @@
     <t>H O</t>
   </si>
   <si>
-    <t>NIM002522</t>
-  </si>
-  <si>
     <t>NTH</t>
   </si>
   <si>
+    <t>BUDGETID</t>
+  </si>
+  <si>
+    <t>June-2023</t>
+  </si>
+  <si>
+    <t>Testss</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
     <t>Vnf And Orchestration Pune</t>
   </si>
   <si>
-    <t>BUDGETID</t>
+    <t>Vaccination For</t>
+  </si>
+  <si>
+    <t>Covishield</t>
+  </si>
+  <si>
+    <t>Vaccination Status</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Vaccination Date</t>
+  </si>
+  <si>
+    <t>13-04-2022</t>
+  </si>
+  <si>
+    <t>Vaccination Comments</t>
+  </si>
+  <si>
+    <t>Emergency Contact Relation </t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Pan Number</t>
+  </si>
+  <si>
+    <t>GZQPS1165J</t>
+  </si>
+  <si>
+    <t>Associate Agency Numbe</t>
+  </si>
+  <si>
+    <t>5432</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Shift Profile </t>
+  </si>
+  <si>
+    <t>08 hours Shift</t>
+  </si>
+  <si>
+    <t>HRBP Name</t>
+  </si>
+  <si>
+    <t>Sathish</t>
+  </si>
+  <si>
+    <t>HRBP Email ID</t>
+  </si>
+  <si>
+    <t>sathi@bletree.in</t>
+  </si>
+  <si>
+    <t>Date of Joining</t>
+  </si>
+  <si>
+    <t>10-03-2023</t>
+  </si>
+  <si>
+    <t>Contract From Date</t>
+  </si>
+  <si>
+    <t>Contract To Date</t>
+  </si>
+  <si>
+    <t>10-03-2024</t>
+  </si>
+  <si>
+    <t>Business Email Id</t>
+  </si>
+  <si>
+    <t>Country </t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>IOC Bank</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Personal Email</t>
+  </si>
+  <si>
+    <t>STL - Principal Contact Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agency Associates Type </t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Attendance Position</t>
+  </si>
+  <si>
+    <t>SSO </t>
+  </si>
+  <si>
+    <t>Sathu@bluetree.in</t>
+  </si>
+  <si>
+    <t>Indrani Roy-24904203</t>
+  </si>
+  <si>
+    <t>ROLE EMPLOYEE</t>
+  </si>
+  <si>
+    <t>EMPLOYEE - No Edit</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>June-2023</t>
-  </si>
-  <si>
-    <t>Testss</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>54</t>
+    <t>CandidateEmail</t>
+  </si>
+  <si>
+    <t>EmpId</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Subdepartment</t>
+  </si>
+  <si>
+    <t>EmployeQualification</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>ESINO</t>
+  </si>
+  <si>
+    <t>ESICLocal</t>
+  </si>
+  <si>
+    <t>ESICDispensary</t>
+  </si>
+  <si>
+    <t>UANNO</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>EmployeeNoofExperience</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>ContractorEmployeeType</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>InsuranceNumber</t>
+  </si>
+  <si>
+    <t>ShiftProfile</t>
+  </si>
+  <si>
+    <t>PermanentAddress</t>
+  </si>
+  <si>
+    <t>PermanentVillage</t>
+  </si>
+  <si>
+    <t>PermanentTaluk</t>
+  </si>
+  <si>
+    <t>PermanentDistrict</t>
+  </si>
+  <si>
+    <t>PermanentState</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>TemporaryAddress</t>
+  </si>
+  <si>
+    <t>TemporaryVillage</t>
+  </si>
+  <si>
+    <t>TemporaryTaluk</t>
+  </si>
+  <si>
+    <t>TemporaryDistrict</t>
+  </si>
+  <si>
+    <t>TemporaryState</t>
+  </si>
+  <si>
+    <t>TransportationRoute</t>
+  </si>
+  <si>
+    <t>PickupPoint</t>
+  </si>
+  <si>
+    <t>EmergencyContactName</t>
+  </si>
+  <si>
+    <t>EmergencyContactNo</t>
+  </si>
+  <si>
+    <t>Sathish@bluetree.in</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>DL - AB</t>
+  </si>
+  <si>
+    <t>DL Production - AB</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>1245134314</t>
+  </si>
+  <si>
+    <t>Banglore</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>RandD</t>
+  </si>
+  <si>
+    <t>AIM</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>TPC01</t>
+  </si>
+  <si>
+    <t>SOUTH</t>
+  </si>
+  <si>
+    <t>AIBSBAB</t>
+  </si>
+  <si>
+    <t>INS6576354</t>
+  </si>
+  <si>
+    <t>A Shift</t>
+  </si>
+  <si>
+    <t>56,vengadesapura</t>
+  </si>
+  <si>
+    <t>Tirupur</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
+  </si>
+  <si>
+    <t>Bhattarahalli K R Puram</t>
+  </si>
+  <si>
+    <t>Bhattarahalli Kr Puram</t>
+  </si>
+  <si>
+    <t>5664773221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Division </t>
+  </si>
+  <si>
+    <t>Business Unit</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>AssociateType</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>May-2023</t>
+  </si>
+  <si>
+    <t>PROCESS</t>
+  </si>
+  <si>
+    <t>TestBudget</t>
+  </si>
+  <si>
+    <t>Job Work</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>123232211</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Sabita pradhan - 1616297</t>
+  </si>
+  <si>
+    <t>ASSEMBLY</t>
+  </si>
+  <si>
+    <t>CORPORATE</t>
+  </si>
+  <si>
+    <t>WATCH</t>
+  </si>
+  <si>
+    <t>SIKKIM</t>
+  </si>
+  <si>
+    <t>HELPER</t>
+  </si>
+  <si>
+    <t>MANPOWER</t>
+  </si>
+  <si>
+    <t>NOT APPLICABLE</t>
+  </si>
+  <si>
+    <t>84296</t>
+  </si>
+  <si>
+    <t>562828893012</t>
+  </si>
+  <si>
+    <t>1459530569</t>
+  </si>
+  <si>
+    <t>MYSSHA0569</t>
+  </si>
+  <si>
+    <t>kirsten.schroeder@yahoo.com</t>
+  </si>
+  <si>
+    <t>WageType</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>ProcessingStage</t>
+  </si>
+  <si>
+    <t>146700014</t>
+  </si>
+  <si>
+    <t>CTC</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>59119</t>
+  </si>
+  <si>
+    <t>177350308822</t>
+  </si>
+  <si>
+    <t>4834783400</t>
+  </si>
+  <si>
+    <t>MYSSHA0570</t>
+  </si>
+  <si>
+    <t>309200060</t>
+  </si>
+  <si>
+    <t>NIM002505</t>
+  </si>
+  <si>
+    <t>rachael.kshlerin@gmail.com</t>
+  </si>
+  <si>
+    <t>60007582</t>
+  </si>
+  <si>
+    <t>309200061</t>
+  </si>
+  <si>
+    <t>309200062</t>
+  </si>
+  <si>
+    <t>29389</t>
+  </si>
+  <si>
+    <t>422306239742</t>
+  </si>
+  <si>
+    <t>2615004216</t>
+  </si>
+  <si>
+    <t>MYSSHA0571</t>
+  </si>
+  <si>
+    <t>309200063</t>
+  </si>
+  <si>
+    <t>309200064</t>
+  </si>
+  <si>
+    <t>309200065</t>
+  </si>
+  <si>
+    <t>309200066</t>
+  </si>
+  <si>
+    <t>309200067</t>
+  </si>
+  <si>
+    <t>83461</t>
+  </si>
+  <si>
+    <t>899193096467</t>
+  </si>
+  <si>
+    <t>5708537091</t>
+  </si>
+  <si>
+    <t>MYSSHA0572</t>
+  </si>
+  <si>
+    <t>32583</t>
+  </si>
+  <si>
+    <t>538500462301</t>
+  </si>
+  <si>
+    <t>7791648753</t>
+  </si>
+  <si>
+    <t>MYSSHA0573</t>
+  </si>
+  <si>
+    <t>58837</t>
+  </si>
+  <si>
+    <t>700735031957</t>
+  </si>
+  <si>
+    <t>5266964642</t>
+  </si>
+  <si>
+    <t>MYSSHA0574</t>
+  </si>
+  <si>
+    <t>309200068</t>
+  </si>
+  <si>
+    <t>309200069</t>
+  </si>
+  <si>
+    <t>NIM002506</t>
+  </si>
+  <si>
+    <t>NIM002507</t>
+  </si>
+  <si>
+    <t>309200070</t>
+  </si>
+  <si>
+    <t>celestino.rowe@gmail.com</t>
+  </si>
+  <si>
+    <t>60007583</t>
+  </si>
+  <si>
+    <t>58790</t>
+  </si>
+  <si>
+    <t>261316393069</t>
+  </si>
+  <si>
+    <t>8615552730</t>
+  </si>
+  <si>
+    <t>MYSSHA0575</t>
   </si>
 </sst>
 </file>
@@ -625,7 +1154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -679,6 +1208,24 @@
       <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6C757D"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -812,13 +1359,14 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -840,9 +1388,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -864,9 +1417,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{6645C61B-B98B-4F0F-B4BF-610F16058852}"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{1C38DF04-A62C-494D-869C-E9D8190D403E}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{6E4AB1E4-7877-4E47-8358-3D5E277E6D36}"/>
@@ -1238,184 +1906,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED5986A-11B8-41A4-AB56-93DADBA64C82}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E31D6D1-E44E-4872-9008-9FBA77AEEFC9}">
+  <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.31640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.140625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="29.7109375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="33.28515625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.28515625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.7109375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.140625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.5703125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="26.0"/>
+    <col min="18" max="18" customWidth="true" width="12.42578125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.140625"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="26.42578125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.5703125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="15.7109375"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="26.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="27.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="11" width="19.42578125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="18.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="17.0"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="24.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="16.42578125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="8.7109375"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="19.7109375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="18.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="19.0"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="16.7109375"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="21.42578125"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="25.28515625"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="22.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>184</v>
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AI16"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:AI16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7109375"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="I16" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="1" t="s">
+      <c r="B2" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>364</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="T2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T16" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="U16" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="V16" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI16" t="s" s="0">
-        <v>55</v>
+      <c r="U2" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{19BD3B54-B28D-4191-A546-7FC9E29C6AA9}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1423,192 +2229,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830D1693-0BCF-472A-BACA-A265C895D677}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="17.28515625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.140625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.85546875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.140625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.140625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7AB12A-C46C-48A6-B451-35D7D059AF0A}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="4" customWidth="true" width="16.85546875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.140625"/>
-    <col min="7" max="7" customWidth="true" width="16.85546875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="27.5703125"/>
-    <col min="9" max="9" customWidth="true" width="13.85546875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.85546875"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313C297D-32C0-4D2A-A48D-573A241E0F52}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1648,25 +2274,25 @@
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -1678,162 +2304,162 @@
         <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AC1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="B2" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="C2" t="s" s="0">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="F2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="I2" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="J2" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="L2" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>139</v>
-      </c>
-      <c r="I2" t="s" s="0">
+      <c r="M2" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="P2" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K2" t="s" s="0">
+      <c r="Q2" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="R2" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="L2" t="s" s="0">
-        <v>141</v>
-      </c>
-      <c r="M2" t="s" s="0">
-        <v>159</v>
-      </c>
-      <c r="N2" t="s" s="0">
-        <v>158</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="P2" t="s" s="0">
+      <c r="S2" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="T2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="V2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="S2" t="s" s="0">
+      <c r="W2" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" t="s" s="0">
+      <c r="X2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="Y2" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="W2" t="s" s="0">
+      <c r="Z2" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AA2" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="Y2" t="s" s="0">
+      <c r="AB2" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="Z2" t="s" s="0">
+      <c r="AC2" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="AA2" t="s" s="0">
+      <c r="AD2" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="AB2" t="s" s="0">
+      <c r="AE2" t="s" s="0">
         <v>154</v>
-      </c>
-      <c r="AC2" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="AD2" t="s" s="0">
-        <v>156</v>
-      </c>
-      <c r="AE2" t="s" s="0">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1847,7 +2473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFE0A20-5BA0-405B-8B78-086D2B91DDE6}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
@@ -1991,91 +2617,91 @@
         <v>0</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P2" t="s" s="0">
+      <c r="Q2" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="R2" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="S2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE2" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2086,88 +2712,88 @@
         <v>0</v>
       </c>
       <c r="D3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N3" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P3" t="s" s="0">
+      <c r="Q3" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q3" t="s" s="0">
+      <c r="R3" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R3" t="s" s="0">
+      <c r="S3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE3" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -2178,88 +2804,88 @@
         <v>0</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N4" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P4" t="s" s="0">
+      <c r="Q4" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q4" t="s" s="0">
+      <c r="R4" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R4" t="s" s="0">
+      <c r="S4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE4" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -2270,88 +2896,88 @@
         <v>0</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N5" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P5" t="s" s="0">
+      <c r="Q5" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q5" t="s" s="0">
+      <c r="R5" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R5" t="s" s="0">
+      <c r="S5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE5" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE5" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -2362,89 +2988,89 @@
         <v>0</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>35</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N6" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P6" t="s" s="0">
+      <c r="Q6" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q6" t="s" s="0">
+      <c r="R6" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R6" t="s" s="0">
+      <c r="S6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE6" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -2455,89 +3081,89 @@
         <v>0</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N7" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P7" t="s" s="0">
+      <c r="Q7" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q7" t="s" s="0">
+      <c r="R7" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R7" t="s" s="0">
+      <c r="S7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE7" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -2548,89 +3174,89 @@
         <v>0</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N8" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P8" t="s" s="0">
+      <c r="Q8" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q8" t="s" s="0">
+      <c r="R8" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R8" t="s" s="0">
+      <c r="S8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE8" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -2641,88 +3267,88 @@
         <v>0</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N9" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P9" t="s" s="0">
+      <c r="Q9" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q9" t="s" s="0">
+      <c r="R9" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R9" t="s" s="0">
+      <c r="S9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AE9" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE9" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -2733,89 +3359,89 @@
         <v>0</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N10" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P10" t="s" s="0">
+      <c r="Q10" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q10" t="s" s="0">
+      <c r="R10" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R10" t="s" s="0">
+      <c r="S10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AE10" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE10" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -2826,89 +3452,89 @@
         <v>0</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N11" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P11" t="s" s="0">
+      <c r="Q11" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q11" t="s" s="0">
+      <c r="R11" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R11" t="s" s="0">
+      <c r="S11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AE11" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE11" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -2919,89 +3545,89 @@
         <v>0</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I12" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P12" t="s" s="0">
+      <c r="Q12" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q12" t="s" s="0">
+      <c r="R12" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R12" t="s" s="0">
+      <c r="S12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AE12" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE12" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -3012,89 +3638,89 @@
         <v>0</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I13" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P13" t="s" s="0">
+      <c r="Q13" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q13" t="s" s="0">
+      <c r="R13" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R13" t="s" s="0">
+      <c r="S13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AE13" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE13" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -3105,89 +3731,89 @@
         <v>0</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E14" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I14" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P14" t="s" s="0">
+      <c r="Q14" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q14" t="s" s="0">
+      <c r="R14" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R14" t="s" s="0">
+      <c r="S14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AE14" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE14" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -3198,89 +3824,89 @@
         <v>0</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E15" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I15" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N15" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q15" t="s" s="0">
+      <c r="R15" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R15" t="s" s="0">
+      <c r="S15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AE15" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE15" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -3291,88 +3917,88 @@
         <v>0</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E16" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N16" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q16" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="R16" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R16" t="s" s="0">
+      <c r="S16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AE16" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE16" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -3383,88 +4009,88 @@
         <v>0</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E17" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I17" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N17" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P17" t="s" s="0">
-        <v>45</v>
-      </c>
       <c r="R17" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AE17" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE17" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -3475,88 +4101,88 @@
         <v>0</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E18" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I18" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N18" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P18" t="s" s="0">
+      <c r="Q18" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q18" t="s" s="0">
-        <v>46</v>
-      </c>
       <c r="S18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AE18" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE18" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -3567,89 +4193,89 @@
         <v>0</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E19" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I19" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N19" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P19" t="s" s="0">
+      <c r="Q19" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q19" t="s" s="0">
+      <c r="R19" t="s" s="0">
         <v>46</v>
-      </c>
-      <c r="R19" t="s" s="0">
-        <v>47</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AE19" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE19" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -3660,89 +4286,89 @@
         <v>0</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E20" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N20" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P20" t="s" s="0">
+      <c r="Q20" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q20" t="s" s="0">
+      <c r="R20" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R20" t="s" s="0">
+      <c r="S20" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD20" s="1" t="s">
+      <c r="AE20" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE20" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -3753,89 +4379,89 @@
         <v>0</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E21" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I21" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N21" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P21" t="s" s="0">
+      <c r="Q21" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q21" t="s" s="0">
+      <c r="R21" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R21" t="s" s="0">
+      <c r="S21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AE21" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE21" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -3846,89 +4472,89 @@
         <v>0</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E22" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I22" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N22" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P22" t="s" s="0">
+      <c r="Q22" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q22" t="s" s="0">
+      <c r="R22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R22" t="s" s="0">
+      <c r="S22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="Y22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD22" s="1" t="s">
+      <c r="AE22" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE22" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -3939,89 +4565,89 @@
         <v>0</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E23" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I23" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N23" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P23" t="s" s="0">
+      <c r="Q23" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q23" t="s" s="0">
+      <c r="R23" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R23" t="s" s="0">
+      <c r="S23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="W23" s="1"/>
       <c r="X23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD23" s="1" t="s">
+      <c r="AE23" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE23" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -4032,89 +4658,89 @@
         <v>0</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E24" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I24" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N24" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P24" t="s" s="0">
+      <c r="Q24" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q24" t="s" s="0">
+      <c r="R24" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R24" t="s" s="0">
+      <c r="S24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="W24" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD24" s="1" t="s">
+      <c r="AE24" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE24" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -4125,89 +4751,89 @@
         <v>0</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E25" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I25" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N25" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P25" t="s" s="0">
+      <c r="Q25" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q25" t="s" s="0">
+      <c r="R25" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R25" t="s" s="0">
+      <c r="S25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="W25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="X25" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE25" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE25" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -4218,89 +4844,89 @@
         <v>0</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E26" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I26" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N26" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P26" t="s" s="0">
+      <c r="Q26" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q26" t="s" s="0">
+      <c r="R26" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R26" t="s" s="0">
+      <c r="S26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S26" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="W26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X26" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Y26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE26" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE26" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -4311,89 +4937,89 @@
         <v>0</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E27" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I27" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N27" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P27" t="s" s="0">
+      <c r="Q27" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q27" t="s" s="0">
+      <c r="R27" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R27" t="s" s="0">
+      <c r="S27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="W27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X27" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Y27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE27" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE27" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -4404,89 +5030,89 @@
         <v>0</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E28" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I28" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N28" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P28" t="s" s="0">
+      <c r="Q28" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q28" t="s" s="0">
+      <c r="R28" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R28" t="s" s="0">
+      <c r="S28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X28" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Y28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE28" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE28" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -4497,89 +5123,89 @@
         <v>0</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E29" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I29" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M29" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N29" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P29" t="s" s="0">
+      <c r="Q29" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q29" t="s" s="0">
+      <c r="R29" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R29" t="s" s="0">
+      <c r="S29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S29" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="W29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="X29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X29" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Y29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE29" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE29" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -4590,89 +5216,89 @@
         <v>0</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E30" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I30" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N30" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P30" t="s" s="0">
+      <c r="Q30" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q30" t="s" s="0">
+      <c r="R30" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R30" t="s" s="0">
+      <c r="S30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="W30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="X30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X30" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Y30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
@@ -4683,88 +5309,88 @@
         <v>0</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E31" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I31" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N31" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P31" t="s" s="0">
+      <c r="Q31" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q31" t="s" s="0">
+      <c r="R31" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R31" t="s" s="0">
+      <c r="S31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="W31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="X31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="Y31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD31" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD31" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
@@ -4773,91 +5399,91 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E32" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I32" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="N32" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P32" t="s" s="0">
+      <c r="Q32" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q32" t="s" s="0">
+      <c r="R32" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R32" t="s" s="0">
+      <c r="S32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="W32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="X32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X32" s="1" t="s">
+      <c r="Y32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD32" s="1" t="s">
+      <c r="AE32" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE32" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4872,12 +5498,303 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2031CA-7E56-404B-91B4-C3DDFE83834B}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.28515625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.42578125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.5703125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.7109375"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="8.0"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="17.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.42578125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.5703125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="14.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.28515625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="8.85546875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="26.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3936D0-ACD7-43A6-AD1C-6BEDF630D57C}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AC6DA6-3E3C-4732-880D-C4AA0E4ECBD8}">
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5021,88 +5938,88 @@
         <v>61</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>38</v>
+      <c r="G2" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P2" t="s" s="0">
+      <c r="Q2" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="R2" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="S2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE2" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5116,257 +6033,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AC6DA6-3E3C-4732-880D-C4AA0E4ECBD8}">
-  <dimension ref="A1:AE2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.28515625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="6.140625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.42578125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.5703125"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="27.42578125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="21.7109375"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="9.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.140625"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.5703125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="8.0"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="17.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="19.42578125"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.140625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="12.5703125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="14.140625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.28515625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="8.85546875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="26.7109375"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="Q2" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" t="s" s="0">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D2" sqref="D2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5507,91 +6180,91 @@
         <v>0</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>38</v>
+      <c r="G2" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="P2" t="s" s="0">
+      <c r="Q2" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="R2" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="S2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="AE2" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5605,34 +6278,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.9140625"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="13.9140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>187</v>
+      <c r="A2" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5644,4 +6317,847 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08581718-8C5C-429D-998C-14A21D8DDCD8}">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.28515625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.140625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="29.7109375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="33.28515625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.7109375"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.28515625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.7109375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.5703125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.85546875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="26.0"/>
+    <col min="18" max="18" customWidth="true" width="12.42578125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.140625"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.7109375"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.5703125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="15.7109375"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="20.42578125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="26.16796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="9.28515625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="11" width="12.42578125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="11.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="24.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y2" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC2" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="AD2" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <hyperlinks>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{615017E0-3463-4CBB-816F-7FF0C1BEDA1F}"/>
+    <hyperlink ref="Y2" r:id="rId2" xr:uid="{B8FE8744-FA1D-4CDD-8610-EE0767A15F72}"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCE3579-FDF2-4AFD-AB34-2FF5C5D4B932}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.5703125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.28515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0C747A19-CF8F-4124-9BE7-1C058E976039}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC09DDE-F90C-4933-8DBC-C85DCD8D4E2F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="17.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED5986A-11B8-41A4-AB56-93DADBA64C82}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05EEDD6-D153-4F53-AE1C-FB32DA29E32D}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="17.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="28.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.140625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125"/>
+    <col min="8" max="8" customWidth="true" width="12.42578125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.140625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B39B74-49FA-45F3-A096-985DA421EA4B}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" customWidth="true" width="16.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.140625"/>
+    <col min="7" max="7" customWidth="true" width="16.85546875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="27.5703125"/>
+    <col min="9" max="9" customWidth="true" width="27.5703125"/>
+    <col min="10" max="10" customWidth="true" width="13.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.85546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830D1693-0BCF-472A-BACA-A265C895D677}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="17.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.140625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7AB12A-C46C-48A6-B451-35D7D059AF0A}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" customWidth="true" width="16.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.140625"/>
+    <col min="7" max="7" customWidth="true" width="16.85546875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="27.5703125"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.85546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>